--- a/documentacao/SprintBacklog.xlsx
+++ b/documentacao/SprintBacklog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name=" Sprint 1 (16-09 à 22-09)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Sprint 5 (14-10 à 20-10)" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 6 (28-10 à 04-10)" sheetId="6" r:id="rId6"/>
     <sheet name="Sprint 7 (04-10 à 11-10)" sheetId="7" r:id="rId7"/>
-    <sheet name="Sprint 8 (12-10 à 18-10)" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint 8 (12-10 à 18-10) (2)" sheetId="9" r:id="rId8"/>
+    <sheet name="Sprint 9 (18-10 à 25-10)" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
   <si>
     <t>Requisito</t>
   </si>
@@ -237,6 +238,27 @@
   </si>
   <si>
     <t>Quando um sensor é acionado, deve ser criado um registro no banco de dados com a data e hora de ativação</t>
+  </si>
+  <si>
+    <t>Substituição de produtos com sensores</t>
+  </si>
+  <si>
+    <t>Configurar SELECT para estabelecimentos</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizar apresentação </t>
+  </si>
+  <si>
+    <t>Homologação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentação Final </t>
+  </si>
+  <si>
+    <t>Grupo</t>
   </si>
 </sst>
 </file>
@@ -1765,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>47</v>
@@ -1819,7 +1841,7 @@
       </c>
       <c r="G2" s="14">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>47</v>
@@ -1973,6 +1995,141 @@
       </c>
       <c r="E11" s="23" t="s">
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="17">
+        <v>13</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B1:B6:B2)</f>
+        <v>68</v>
+      </c>
+      <c r="G2" s="14">
+        <f>SUMIF(D2:D19,0,B2:B19)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="17">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="17">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="17">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17">
+        <v>4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="17">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1982,9 +2139,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2191,19 +2351,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2228,9 +2384,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacao/SprintBacklog.xlsx
+++ b/documentacao/SprintBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name=" Sprint 1 (16-09 à 22-09)" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,55 +288,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -346,12 +311,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF9797"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -403,14 +368,406 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -419,59 +776,189 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7979"/>
+      <color rgb="FFFF7D7D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -782,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" activeCellId="1" sqref="A2:D13 F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,198 +1282,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="30">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1</v>
+      </c>
+      <c r="F2" s="56">
         <f>SUM(B2:B13)</f>
         <v>79</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="38">
         <f>SUMIF(D2:D13,0,B2:B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="30">
+        <v>5</v>
+      </c>
+      <c r="C3" s="30">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="30">
+        <v>5</v>
+      </c>
+      <c r="C4" s="30">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="30">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="30">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="30">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="30">
+        <v>5</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="30">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30">
         <v>6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="30">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30">
         <v>7</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="30">
+        <v>5</v>
+      </c>
+      <c r="C9" s="30">
         <v>8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="30">
+        <v>5</v>
+      </c>
+      <c r="C10" s="30">
         <v>9</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="30">
+        <v>5</v>
+      </c>
+      <c r="C11" s="30">
         <v>10</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="30">
+        <v>5</v>
+      </c>
+      <c r="C12" s="30">
         <v>11</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="31">
+        <v>5</v>
+      </c>
+      <c r="C13" s="31">
         <v>12</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="38">
         <v>1</v>
       </c>
     </row>
@@ -1001,7 +1488,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F2" activeCellId="1" sqref="A2:D9 F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,142 +1501,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="30">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1</v>
+      </c>
+      <c r="F2" s="56">
         <f>SUM(B2:B12)</f>
         <v>87</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="38">
         <f>SUMIF(D2:D12,0,B2:B12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="30">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="30">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="30">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="30">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="30">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="30">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="30">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="30">
+        <v>5</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="30">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="30">
         <v>6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="51">
         <v>21</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="51">
         <v>7</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="D8" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="54">
         <v>13</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="54">
         <v>28</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="55">
         <v>1</v>
       </c>
     </row>
@@ -1163,7 +1650,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" activeCellId="1" sqref="A2:D5 F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,86 +1662,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="46">
         <v>13</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="C2" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47">
+        <v>1</v>
+      </c>
+      <c r="F2" s="33">
         <f>SUM(B2:B10)</f>
         <v>52</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="34">
         <f>SUMIF(D2:D10,0,B2:B10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="46">
         <v>13</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="46">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="46">
         <v>13</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="46">
         <v>3</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="49">
         <v>13</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="49">
         <v>4</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="34">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1755,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F2" activeCellId="1" sqref="A2:D6 F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,100 +1768,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="46">
         <v>21</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="C2" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47">
+        <v>1</v>
+      </c>
+      <c r="F2" s="33">
         <f>SUM(B2:B11)</f>
         <v>53</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="34">
         <f>SUMIF(D2:D11,0,B2:B11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="46">
         <v>21</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="46">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="46">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="46">
         <v>4</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="46">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="C5" s="46">
+        <v>5</v>
+      </c>
+      <c r="D5" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="11">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="49">
+        <v>5</v>
+      </c>
+      <c r="C6" s="49">
         <v>6</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="34">
         <v>1</v>
       </c>
     </row>
@@ -1388,7 +1875,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="F2" activeCellId="1" sqref="A2:D2 F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,43 +1886,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="41">
         <v>21</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="C2" s="41">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42">
+        <v>1</v>
+      </c>
+      <c r="F2" s="43">
         <f>SUM(B2:B11)</f>
         <v>21</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="44">
         <f>SUMIF(D2:D11,0,B2:B11)</f>
         <v>0</v>
       </c>
@@ -1450,7 +1937,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F2" activeCellId="1" sqref="A2:D8 F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,128 +1950,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="36">
         <v>13</v>
       </c>
-      <c r="C2" s="19">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37">
+        <v>1</v>
+      </c>
+      <c r="F2" s="33">
         <f>SUM(B2:B19)</f>
         <v>97</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="34">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="36">
         <v>21</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="36">
         <v>2</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="36">
         <v>8</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="36">
         <v>4</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="19">
-        <v>5</v>
-      </c>
-      <c r="C5" s="19">
-        <v>5</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="36">
+        <v>5</v>
+      </c>
+      <c r="C5" s="36">
+        <v>5</v>
+      </c>
+      <c r="D5" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="36">
         <v>21</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="36">
         <v>6</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="24">
         <v>21</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="36">
         <v>9</v>
       </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="26">
         <v>8</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="31">
         <v>11</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1598,7 +2085,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F2" activeCellId="1" sqref="A2:D11 F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,170 +2098,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="24">
         <v>8</v>
       </c>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1</v>
+      </c>
+      <c r="F2" s="33">
         <f>SUM(B2:B19)</f>
         <v>120</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="34">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="24">
         <v>13</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="30">
         <v>2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="36">
         <v>8</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="30">
         <v>3</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="36">
         <v>13</v>
       </c>
-      <c r="C5" s="20">
-        <v>5</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="C5" s="30">
+        <v>5</v>
+      </c>
+      <c r="D5" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="24">
         <v>13</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="30">
         <v>6</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="30">
         <v>13</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="30">
         <v>7</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="18">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="B8" s="30">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30">
         <v>8</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="30">
         <v>13</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="30">
         <v>9</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="30">
         <v>13</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="30">
         <v>10</v>
       </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="26">
         <v>21</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="31">
         <v>12</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="38">
         <v>1</v>
       </c>
     </row>
@@ -1788,7 +2275,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F2" activeCellId="1" sqref="A2:D11 F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,200 +2287,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17">
-        <v>5</v>
-      </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="24">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="33">
         <f>SUM(B2:B19)</f>
         <v>110</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="34">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="17">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="24">
+        <v>5</v>
+      </c>
+      <c r="C3" s="24">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="24">
         <v>0</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="24">
         <v>8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="24">
         <v>3</v>
       </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="24">
         <v>13</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="24">
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="24">
         <v>0</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="24">
         <v>8</v>
       </c>
-      <c r="C6" s="17">
-        <v>5</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="24">
+        <v>5</v>
+      </c>
+      <c r="D6" s="24">
         <v>0</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="24">
         <v>8</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="24">
         <v>6</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="24">
         <v>0</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="24">
         <v>21</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="24">
         <v>7</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="24">
         <v>0</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="24">
         <v>21</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="24">
         <v>8</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="24">
         <v>0</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="24">
         <v>13</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="30">
         <v>9</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="30">
         <v>0</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="31">
         <v>8</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="31">
         <v>10</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="32">
         <v>0</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2007,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,116 +2507,119 @@
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="24">
         <v>13</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="27">
         <f>SUM(B1:B6:B2)</f>
         <v>68</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="28">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="24">
         <v>8</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="24">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="24">
         <v>0</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="24">
         <v>13</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="24">
         <v>3</v>
       </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="24">
         <v>13</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="24">
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="24">
         <v>0</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="26">
         <v>21</v>
       </c>
-      <c r="C6" s="17">
-        <v>5</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="26">
+        <v>5</v>
+      </c>
+      <c r="D6" s="26">
         <v>0</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2139,6 +2630,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2147,7 +2644,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EB6548DE3D0B4FAB42E42BA2CC71F0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54fa326369124d17a54429b83253287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93aadb1b-f078-425f-a07f-e2cc4bed1fef" xmlns:ns4="fe025bb9-070a-4424-8929-b6cadbd5fdba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a4e25a91c3db45a1871018eed75e1f9" ns3:_="" ns4:_="">
     <xsd:import namespace="93aadb1b-f078-425f-a07f-e2cc4bed1fef"/>
@@ -2350,13 +2847,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2364,7 +2864,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E91A034-4082-4624-B872-C130C5111857}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2381,13 +2881,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentacao/SprintBacklog.xlsx
+++ b/documentacao/SprintBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name=" Sprint 1 (16-09 à 22-09)" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,13 +277,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -305,18 +298,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFFF7979"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9797"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -368,6 +361,378 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -375,411 +740,165 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,165 +906,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="A2:D13 F2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,198 +1262,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="9">
         <v>8</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="35">
-        <v>1</v>
-      </c>
-      <c r="F2" s="56">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
         <f>SUM(B2:B13)</f>
         <v>79</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="14">
         <f>SUMIF(D2:D13,0,B2:B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30">
-        <v>5</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="B3" s="9">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="30">
-        <v>5</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="9">
         <v>13</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="9">
         <v>13</v>
       </c>
-      <c r="C6" s="30">
-        <v>5</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="30">
-        <v>5</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="30">
-        <v>5</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="30">
-        <v>5</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="B9" s="9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
         <v>8</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="30">
-        <v>5</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
         <v>9</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="30">
-        <v>5</v>
-      </c>
-      <c r="C11" s="30">
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
         <v>10</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="30">
-        <v>5</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
         <v>11</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="31">
-        <v>5</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="B13" s="13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
         <v>12</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1488,7 +1468,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="A2:D9 F2:G2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,142 +1481,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="9">
         <v>3</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="35">
-        <v>1</v>
-      </c>
-      <c r="F2" s="56">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
         <f>SUM(B2:B12)</f>
         <v>87</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="14">
         <f>SUMIF(D2:D12,0,B2:B12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="9">
         <v>13</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="9">
         <v>13</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="9">
         <v>13</v>
       </c>
-      <c r="C6" s="30">
-        <v>5</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="9">
         <v>8</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="18">
         <v>21</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="18">
         <v>7</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="21">
         <v>13</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="21">
         <v>28</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1650,7 +1630,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="A2:D5 F2:G2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,86 +1642,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="27">
         <v>13</v>
       </c>
-      <c r="C2" s="46">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47">
-        <v>1</v>
-      </c>
-      <c r="F2" s="33">
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="32">
         <f>SUM(B2:B10)</f>
         <v>52</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="31">
         <f>SUMIF(D2:D10,0,B2:B10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="27">
         <v>13</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="27">
         <v>2</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="27">
         <v>13</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="30">
         <v>13</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="30">
         <v>4</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1755,7 +1735,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="A2:D6 F2:G2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,100 +1748,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="27">
         <v>21</v>
       </c>
-      <c r="C2" s="46">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47">
-        <v>1</v>
-      </c>
-      <c r="F2" s="33">
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="32">
         <f>SUM(B2:B11)</f>
         <v>53</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="31">
         <f>SUMIF(D2:D11,0,B2:B11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="27">
         <v>21</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="27">
         <v>2</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="27">
         <v>3</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="27">
         <v>4</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" s="46">
-        <v>5</v>
-      </c>
-      <c r="D5" s="47">
+      <c r="C5" s="27">
+        <v>5</v>
+      </c>
+      <c r="D5" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="49">
-        <v>5</v>
-      </c>
-      <c r="C6" s="49">
+      <c r="B6" s="30">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30">
         <v>6</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1886,43 +1866,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="40">
         <v>21</v>
       </c>
-      <c r="C2" s="41">
-        <v>1</v>
-      </c>
-      <c r="D2" s="42">
-        <v>1</v>
-      </c>
-      <c r="F2" s="43">
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42">
         <f>SUM(B2:B11)</f>
         <v>21</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="43">
         <f>SUMIF(D2:D11,0,B2:B11)</f>
         <v>0</v>
       </c>
@@ -1937,7 +1917,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="A2:D8 F2:G2"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:D1 F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,128 +1930,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="44">
         <v>13</v>
       </c>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-      <c r="D2" s="37">
-        <v>1</v>
-      </c>
-      <c r="F2" s="33">
+      <c r="C2" s="44">
+        <v>1</v>
+      </c>
+      <c r="D2" s="45">
+        <v>1</v>
+      </c>
+      <c r="F2" s="32">
         <f>SUM(B2:B19)</f>
         <v>97</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="31">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="44">
         <v>21</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="44">
         <v>2</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="44">
         <v>8</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="44">
         <v>4</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="36">
-        <v>5</v>
-      </c>
-      <c r="C5" s="36">
-        <v>5</v>
-      </c>
-      <c r="D5" s="37">
+      <c r="B5" s="44">
+        <v>5</v>
+      </c>
+      <c r="C5" s="44">
+        <v>5</v>
+      </c>
+      <c r="D5" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="44">
         <v>21</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="44">
         <v>6</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="46">
         <v>21</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="44">
         <v>9</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="48">
         <v>8</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="13">
         <v>11</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="49">
         <v>1</v>
       </c>
     </row>
@@ -2084,9 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="A2:D11 F2:G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2098,170 +2076,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="46">
         <v>8</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="35">
-        <v>1</v>
-      </c>
-      <c r="F2" s="33">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="32">
         <f>SUM(B2:B19)</f>
         <v>120</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="31">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="46">
         <v>13</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="44">
         <v>8</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="44">
         <v>13</v>
       </c>
-      <c r="C5" s="30">
-        <v>5</v>
-      </c>
-      <c r="D5" s="37">
+      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+      <c r="D5" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="46">
         <v>13</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="9">
         <v>6</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="9">
         <v>13</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="9">
         <v>7</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="30">
-        <v>5</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
         <v>8</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="9">
         <v>13</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="9">
         <v>9</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="9">
         <v>13</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="9">
         <v>10</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="48">
         <v>21</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="13">
         <v>12</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2275,7 +2253,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="A2:D11 F2:G2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,201 +2265,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="24">
-        <v>5</v>
-      </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="24">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="46">
+        <v>5</v>
+      </c>
+      <c r="C2" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46">
+        <v>1</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="54">
         <f>SUM(B2:B19)</f>
         <v>110</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="31">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="24">
-        <v>5</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="B3" s="46">
+        <v>5</v>
+      </c>
+      <c r="C3" s="46">
         <v>2</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="46">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="46">
         <v>8</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="46">
         <v>3</v>
       </c>
-      <c r="D4" s="24">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="46">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="46">
         <v>13</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="46">
         <v>4</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="46">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="46">
         <v>8</v>
       </c>
-      <c r="C6" s="24">
-        <v>5</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="C6" s="46">
+        <v>5</v>
+      </c>
+      <c r="D6" s="46">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="46">
         <v>8</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="46">
         <v>6</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="46">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="55" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="46">
         <v>21</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="46">
         <v>7</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="46">
         <v>0</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="9">
         <v>21</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="9">
         <v>8</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="56" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="46">
         <v>13</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="9">
         <v>9</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="13">
         <v>8</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="51">
         <v>0</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="55" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2495,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,118 +2486,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="46">
         <v>13</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="24">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46">
+        <v>1</v>
+      </c>
+      <c r="E2" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="57">
         <f>SUM(B1:B6:B2)</f>
         <v>68</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="58">
         <f>SUMIF(D2:D19,0,B2:B19)</f>
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="46">
         <v>8</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="46">
         <v>2</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="46">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="46">
         <v>13</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="46">
         <v>3</v>
       </c>
-      <c r="D4" s="24">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="46">
+        <v>1</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="46">
         <v>13</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="46">
         <v>4</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="46">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="48">
         <v>21</v>
       </c>
-      <c r="C6" s="26">
-        <v>5</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="48">
+        <v>5</v>
+      </c>
+      <c r="D6" s="48">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="60" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2630,21 +2608,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EB6548DE3D0B4FAB42E42BA2CC71F0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54fa326369124d17a54429b83253287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93aadb1b-f078-425f-a07f-e2cc4bed1fef" xmlns:ns4="fe025bb9-070a-4424-8929-b6cadbd5fdba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a4e25a91c3db45a1871018eed75e1f9" ns3:_="" ns4:_="">
     <xsd:import namespace="93aadb1b-f078-425f-a07f-e2cc4bed1fef"/>
@@ -2847,24 +2810,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E91A034-4082-4624-B872-C130C5111857}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2881,4 +2842,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E79708DC-A660-4460-A0A8-6D647472B58B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB45A76C-367E-48F2-BA42-D8633D20F2C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>